--- a/project-path/Summary_of_STM.xlsx
+++ b/project-path/Summary_of_STM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sweitzer/Box/Project Path/Analyses/Study 2/Topic Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CB25B9-F0AF-3440-A493-BC58D22162AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3394C9BB-1B19-1E47-98FD-277B61BD9EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30940" yWindow="1540" windowWidth="34400" windowHeight="28340" xr2:uid="{EBEDC31A-029F-2D45-8D3E-AB95090D2B32}"/>
+    <workbookView xWindow="30940" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{EBEDC31A-029F-2D45-8D3E-AB95090D2B32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>Noise</t>
   </si>
   <si>
-    <t>n STM Topics</t>
-  </si>
-  <si>
     <t>Top Fitted Tweets</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>cum. %</t>
-  </si>
-  <si>
     <t>Example</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t xml:space="preserve">   Uncertainty</t>
   </si>
   <si>
-    <t xml:space="preserve">   Bugs/Technical Complains/Updates</t>
-  </si>
-  <si>
     <t>sticker, stickers, pic</t>
   </si>
   <si>
@@ -180,13 +171,44 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> STM Topics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cum.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> %</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   Bugs/Technical Complaints</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,23 +217,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -222,16 +261,7 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -240,10 +270,28 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -252,72 +300,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,15 +718,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF254AD9-3513-1F48-A683-81590E655CA5}">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="B2" sqref="B2:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="1.6640625" customWidth="1"/>
     <col min="5" max="7" width="10" customWidth="1"/>
@@ -651,421 +735,396 @@
     <col min="10" max="10" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="20" t="s">
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="13">
+        <v>1078</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="2">
+        <v>285</v>
+      </c>
+      <c r="F6" s="17">
+        <v>6.6E-3</v>
+      </c>
+      <c r="G6" s="17">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="33" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12">
+        <v>349</v>
+      </c>
+      <c r="F7" s="14">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="G7" s="14">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="20">
+        <v>2014</v>
+      </c>
+      <c r="F8" s="17">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="22" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12">
+        <v>496</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="G9" s="14">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="20">
+        <v>2393</v>
+      </c>
+      <c r="F10" s="17">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="33" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12">
+        <v>831</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.17369999999999999</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="34" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>263</v>
+      </c>
+      <c r="F12" s="22">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.1799</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="2:10" ht="33" x14ac:dyDescent="0.2">
+      <c r="B14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="12">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="13">
+        <v>4811</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="20">
+        <v>2307</v>
+      </c>
+      <c r="F15" s="17">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12">
         <v>18</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="13">
+        <v>7089</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5">
-        <v>1078</v>
-      </c>
-      <c r="F5" s="6">
-        <f>E5/42863</f>
-        <v>2.5149896180855284E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <f>F5</f>
-        <v>2.5149896180855284E-2</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+      <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D17" s="7"/>
+      <c r="E17" s="20">
+        <v>1051</v>
+      </c>
+      <c r="F17" s="17">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.53580000000000005</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="27">
+        <v>19896</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.4642</v>
+      </c>
+      <c r="G18" s="28">
         <v>1</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>285</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" ref="F6:F12" si="0">E6/42863</f>
-        <v>6.649091290856916E-3</v>
-      </c>
-      <c r="G6" s="6">
-        <f>G5+F6</f>
-        <v>3.1798987471712198E-2</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>349</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>8.1422205631896966E-3</v>
-      </c>
-      <c r="G7" s="6">
-        <f>G6+F7</f>
-        <v>3.9941208034901893E-2</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5">
-        <v>2014</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>4.6986911788722205E-2</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" ref="G8:G12" si="1">G7+F8</f>
-        <v>8.6928119823624098E-2</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>496</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>1.1571751860579054E-2</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>9.8499871684203155E-2</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5">
-        <v>2393</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5829036698317895E-2</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>0.15432890838252106</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>831</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>1.9387350395445955E-2</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>0.17371625877796701</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>263</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>6.135828103492523E-3</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="1"/>
-        <v>0.17985208688145954</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="2:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5">
-        <v>4811</v>
-      </c>
-      <c r="F14" s="6">
-        <f>E14/42863</f>
-        <v>0.11224132701864079</v>
-      </c>
-      <c r="G14" s="6">
-        <f>G12+F14</f>
-        <v>0.29209341390010035</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5">
-        <v>2307</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" ref="F15:F18" si="2">E15/42863</f>
-        <v>5.3822644238620723E-2</v>
-      </c>
-      <c r="G15" s="6">
-        <f>G14+F15</f>
-        <v>0.34591605813872106</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5">
-        <v>7089</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="2"/>
-        <v>0.16538739705573571</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" ref="G16" si="3">G15+F16</f>
-        <v>0.51130345519445675</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="18" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="4">
-        <v>3</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5">
-        <v>1051</v>
-      </c>
-      <c r="F17" s="6">
-        <f>E17/42863</f>
-        <v>2.4519982269089892E-2</v>
-      </c>
-      <c r="G17" s="6">
-        <f>G16+F17</f>
-        <v>0.53582343746354666</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="8">
-        <v>23</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9">
-        <v>19896</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" si="2"/>
-        <v>0.46417656253645334</v>
-      </c>
-      <c r="G18" s="10">
-        <f>G17+F18</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>48</v>
+      <c r="J18" s="29" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
